--- a/po_analysis_by_asin/B0CCWLMK56_po_data.xlsx
+++ b/po_analysis_by_asin/B0CCWLMK56_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,33 +452,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45327</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45341</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45355</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45544</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>20</v>
       </c>
     </row>
@@ -493,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,25 +555,49 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45536</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B7" t="n">
         <v>20</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CCWLMK56_po_data.xlsx
+++ b/po_analysis_by_asin/B0CCWLMK56_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -549,7 +550,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -599,6 +600,285 @@
       </c>
       <c r="B7" t="n">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-16.77377536702019</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62.45974042103003</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>26</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-12.9160050153533</v>
+      </c>
+      <c r="D3" t="n">
+        <v>67.68937485220701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>27</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-14.34513089508917</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.93269397063861</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>28</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-18.11633219810028</v>
+      </c>
+      <c r="D5" t="n">
+        <v>66.42714548867967</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>28</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-10.48695729086381</v>
+      </c>
+      <c r="D6" t="n">
+        <v>68.92077926017737</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>33</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.035208032848147</v>
+      </c>
+      <c r="D7" t="n">
+        <v>73.05525673084804</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>34</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-7.958252547735533</v>
+      </c>
+      <c r="D8" t="n">
+        <v>71.84820573732635</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.15170858232368</v>
+      </c>
+      <c r="D9" t="n">
+        <v>74.3777471136387</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>45</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.261842055691847</v>
+      </c>
+      <c r="D10" t="n">
+        <v>83.82103106674866</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.28920740835868</v>
+      </c>
+      <c r="D11" t="n">
+        <v>86.29961643476265</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>46</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.240481276225174</v>
+      </c>
+      <c r="D12" t="n">
+        <v>89.79453282986422</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>46</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.2594763880457</v>
+      </c>
+      <c r="D13" t="n">
+        <v>85.91457765331825</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>46</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.619482159312992</v>
+      </c>
+      <c r="D14" t="n">
+        <v>85.23863883113964</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>47</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.978431269990481</v>
+      </c>
+      <c r="D15" t="n">
+        <v>86.7009943010132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>47</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.025794158363293</v>
+      </c>
+      <c r="D16" t="n">
+        <v>87.49636701622921</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>48</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.408277813212546</v>
+      </c>
+      <c r="D17" t="n">
+        <v>90.61991638090643</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>48</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.149482030495714</v>
+      </c>
+      <c r="D18" t="n">
+        <v>88.0777598853865</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CCWLMK56_po_data.xlsx
+++ b/po_analysis_by_asin/B0CCWLMK56_po_data.xlsx
@@ -613,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,16 +632,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -650,12 +640,6 @@
       <c r="B2" t="n">
         <v>26</v>
       </c>
-      <c r="C2" t="n">
-        <v>-16.77377536702019</v>
-      </c>
-      <c r="D2" t="n">
-        <v>62.45974042103003</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -664,12 +648,6 @@
       <c r="B3" t="n">
         <v>26</v>
       </c>
-      <c r="C3" t="n">
-        <v>-12.9160050153533</v>
-      </c>
-      <c r="D3" t="n">
-        <v>67.68937485220701</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -678,12 +656,6 @@
       <c r="B4" t="n">
         <v>27</v>
       </c>
-      <c r="C4" t="n">
-        <v>-14.34513089508917</v>
-      </c>
-      <c r="D4" t="n">
-        <v>65.93269397063861</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -692,12 +664,6 @@
       <c r="B5" t="n">
         <v>28</v>
       </c>
-      <c r="C5" t="n">
-        <v>-18.11633219810028</v>
-      </c>
-      <c r="D5" t="n">
-        <v>66.42714548867967</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -706,12 +672,6 @@
       <c r="B6" t="n">
         <v>28</v>
       </c>
-      <c r="C6" t="n">
-        <v>-10.48695729086381</v>
-      </c>
-      <c r="D6" t="n">
-        <v>68.92077926017737</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -720,12 +680,6 @@
       <c r="B7" t="n">
         <v>33</v>
       </c>
-      <c r="C7" t="n">
-        <v>-5.035208032848147</v>
-      </c>
-      <c r="D7" t="n">
-        <v>73.05525673084804</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -734,12 +688,6 @@
       <c r="B8" t="n">
         <v>34</v>
       </c>
-      <c r="C8" t="n">
-        <v>-7.958252547735533</v>
-      </c>
-      <c r="D8" t="n">
-        <v>71.84820573732635</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -748,12 +696,6 @@
       <c r="B9" t="n">
         <v>34</v>
       </c>
-      <c r="C9" t="n">
-        <v>-5.15170858232368</v>
-      </c>
-      <c r="D9" t="n">
-        <v>74.3777471136387</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -762,12 +704,6 @@
       <c r="B10" t="n">
         <v>45</v>
       </c>
-      <c r="C10" t="n">
-        <v>3.261842055691847</v>
-      </c>
-      <c r="D10" t="n">
-        <v>83.82103106674866</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -776,12 +712,6 @@
       <c r="B11" t="n">
         <v>45</v>
       </c>
-      <c r="C11" t="n">
-        <v>5.28920740835868</v>
-      </c>
-      <c r="D11" t="n">
-        <v>86.29961643476265</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -790,12 +720,6 @@
       <c r="B12" t="n">
         <v>46</v>
       </c>
-      <c r="C12" t="n">
-        <v>4.240481276225174</v>
-      </c>
-      <c r="D12" t="n">
-        <v>89.79453282986422</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -804,12 +728,6 @@
       <c r="B13" t="n">
         <v>46</v>
       </c>
-      <c r="C13" t="n">
-        <v>6.2594763880457</v>
-      </c>
-      <c r="D13" t="n">
-        <v>85.91457765331825</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -818,12 +736,6 @@
       <c r="B14" t="n">
         <v>46</v>
       </c>
-      <c r="C14" t="n">
-        <v>7.619482159312992</v>
-      </c>
-      <c r="D14" t="n">
-        <v>85.23863883113964</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -832,12 +744,6 @@
       <c r="B15" t="n">
         <v>47</v>
       </c>
-      <c r="C15" t="n">
-        <v>2.978431269990481</v>
-      </c>
-      <c r="D15" t="n">
-        <v>86.7009943010132</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -846,12 +752,6 @@
       <c r="B16" t="n">
         <v>47</v>
       </c>
-      <c r="C16" t="n">
-        <v>5.025794158363293</v>
-      </c>
-      <c r="D16" t="n">
-        <v>87.49636701622921</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -860,12 +760,6 @@
       <c r="B17" t="n">
         <v>48</v>
       </c>
-      <c r="C17" t="n">
-        <v>9.408277813212546</v>
-      </c>
-      <c r="D17" t="n">
-        <v>90.61991638090643</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -873,12 +767,6 @@
       </c>
       <c r="B18" t="n">
         <v>48</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.149482030495714</v>
-      </c>
-      <c r="D18" t="n">
-        <v>88.0777598853865</v>
       </c>
     </row>
   </sheetData>
